--- a/Test_OCR.xlsx
+++ b/Test_OCR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhannya\OneDrive\Doc\UiPath\process_OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC924F69-0656-4371-96B3-8E002DC1C8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0BA2A-1F6F-4A9E-9308-FDCB3D35AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11244" yWindow="2388" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_OCR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -189,6 +189,23 @@
   <si>
     <t>PO_65.02.08_3700022474_IN5.pdf</t>
   </si>
+  <si>
+    <t>10 2000004372 Packing Set
+Part#150045-4 (6 Each/set)</t>
+  </si>
+  <si>
+    <t>Max. Drill Ltd., Part</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>.. FEB, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300007988
+</t>
+  </si>
 </sst>
 </file>
 
@@ -342,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +393,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,13 +409,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +636,7 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -623,8 +646,8 @@
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="40.5546875" customWidth="1"/>
     <col min="12" max="12" width="31.88671875" customWidth="1"/>
     <col min="13" max="13" width="33" customWidth="1"/>
     <col min="14" max="14" width="22.77734375" customWidth="1"/>
@@ -652,72 +675,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="15" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="15" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="15" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="15" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="17"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="22"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
@@ -726,8 +749,8 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
@@ -833,7 +856,7 @@
       <c r="AK2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="AM2" s="3"/>
@@ -884,14 +907,14 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
     </row>
     <row r="4" spans="1:44" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -935,7 +958,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="23"/>
+      <c r="AL4" s="18"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
@@ -943,49 +966,117 @@
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
     </row>
-    <row r="5" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="C5" s="10">
+        <v>3700022401</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3700022401</v>
+      </c>
+      <c r="E5" s="10">
+        <v>100</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10">
+        <v>100</v>
+      </c>
+      <c r="I5" s="12">
+        <v>210669</v>
+      </c>
+      <c r="J5" s="12">
+        <v>210669</v>
+      </c>
+      <c r="K5" s="10">
+        <v>100</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="10">
+        <v>100</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>100</v>
+      </c>
+      <c r="R5" s="12">
+        <v>6</v>
+      </c>
+      <c r="S5" s="12">
+        <v>6</v>
+      </c>
+      <c r="T5" s="10">
+        <v>100</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="10">
+        <v>100</v>
+      </c>
+      <c r="X5" s="11">
+        <v>4270</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>4270</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>25620</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>25620</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>44638</v>
+      </c>
+      <c r="AE5" s="26">
+        <v>44638</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>100</v>
+      </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
+      <c r="AI5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="13">
+        <v>44595</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>70</v>
+      </c>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
